--- a/DONT TOUCH THIS !!!!!!!!!!!/ParallelWorking/Mappe1.xlsx
+++ b/DONT TOUCH THIS !!!!!!!!!!!/ParallelWorking/Mappe1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flosp\Desktop\Uni-Informatik Games Engineering\Semester3\BachelorpraktikumAspekte der Systemnahen Programmierung bei Games\Mandelbrot\Idee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flosp\Desktop\Uni-Informatik Games Engineering\Semester3\BachelorpraktikumAspekte der Systemnahen Programmierung bei Games\ProjektGit\Mandelbrot\DONT TOUCH THIS !!!!!!!!!!!\ParallelWorking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
   <si>
     <t>RegisterNR</t>
   </si>
@@ -173,18 +173,6 @@
     <t>p4i</t>
   </si>
   <si>
-    <t>2ab, (r+i)^2, P1</t>
-  </si>
-  <si>
-    <t>2ab, (r+i)^2, P2</t>
-  </si>
-  <si>
-    <t>2ab, (r+i)^2, P3</t>
-  </si>
-  <si>
-    <t>2ab, (r+i)^2, p4</t>
-  </si>
-  <si>
     <t>zahl 4 für abbruch</t>
   </si>
   <si>
@@ -207,13 +195,40 @@
   </si>
   <si>
     <t>q5</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>(r+i)^2, P1</t>
+  </si>
+  <si>
+    <t>(r+i)^2, P2</t>
+  </si>
+  <si>
+    <t>(r+i)^2, P3</t>
+  </si>
+  <si>
+    <t>(r+i)^2, P4</t>
+  </si>
+  <si>
+    <t>2ab, p4</t>
+  </si>
+  <si>
+    <t>2ab, p1</t>
+  </si>
+  <si>
+    <t>2ab, p2</t>
+  </si>
+  <si>
+    <t>2ab, p3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +236,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +254,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,9 +282,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -567,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E18" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -870,7 +908,7 @@
         <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -917,7 +955,7 @@
         <v>37</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -964,7 +1002,7 @@
         <v>41</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1011,7 +1049,7 @@
         <v>45</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1054,11 +1092,11 @@
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="H37" t="s">
-        <v>49</v>
+      <c r="H37" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1069,7 +1107,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1079,8 +1117,8 @@
       <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="H39" t="s">
-        <v>51</v>
+      <c r="H39" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1091,7 +1129,7 @@
         <v>3</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1101,6 +1139,12 @@
       <c r="B41" t="s">
         <v>3</v>
       </c>
+      <c r="H41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -1109,6 +1153,10 @@
       <c r="B42" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -1117,6 +1165,9 @@
       <c r="B43" t="s">
         <v>3</v>
       </c>
+      <c r="H43" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -1125,6 +1176,9 @@
       <c r="B44" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H44" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -1150,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1161,10 +1215,11 @@
         <v>3</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>